--- a/TESTING/legendre_out/DATA/p2/a0/p2_rates.xlsx
+++ b/TESTING/legendre_out/DATA/p2/a0/p2_rates.xlsx
@@ -617,7 +617,7 @@
         <v>0.05</v>
       </c>
       <c r="C23" t="n">
-        <v>3.537689594428015e-282</v>
+        <v>1.910044682548787e-282</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>0.06</v>
       </c>
       <c r="C24" t="n">
-        <v>4.777050671742884e-236</v>
+        <v>2.579144995786488e-236</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>4.613006328716682e-203</v>
+        <v>2.490596052932349e-203</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>0.08</v>
       </c>
       <c r="C26" t="n">
-        <v>2.737607844238852e-178</v>
+        <v>1.478079197623186e-178</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>0.09</v>
       </c>
       <c r="C27" t="n">
-        <v>5.49387525023471e-159</v>
+        <v>2.966295466886597e-159</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" t="n">
-        <v>1.641178579863489e-143</v>
+        <v>8.861400161105788e-144</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>0.11</v>
       </c>
       <c r="C29" t="n">
-        <v>8.098649822946419e-131</v>
+        <v>4.372921143488862e-131</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>0.12</v>
       </c>
       <c r="C30" t="n">
-        <v>3.278288751259433e-120</v>
+        <v>1.770189961932425e-120</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>0.13</v>
       </c>
       <c r="C31" t="n">
-        <v>3.295578390617219e-111</v>
+        <v>1.779584499825226e-111</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>0.14</v>
       </c>
       <c r="C32" t="n">
-        <v>1.812504711352598e-103</v>
+        <v>9.787707032228842e-104</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>0.15</v>
       </c>
       <c r="C33" t="n">
-        <v>9.724210062881202e-97</v>
+        <v>5.251359530553954e-97</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>0.16</v>
       </c>
       <c r="C34" t="n">
-        <v>7.849980382443124e-91</v>
+        <v>4.239381583284432e-91</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>0.18</v>
       </c>
       <c r="C35" t="n">
-        <v>6.094915256663241e-81</v>
+        <v>3.291821495500461e-81</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>0.2</v>
       </c>
       <c r="C36" t="n">
-        <v>5.559159700872607e-73</v>
+        <v>3.002684247432046e-73</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>0.25</v>
       </c>
       <c r="C37" t="n">
-        <v>1.629367175754193e-58</v>
+        <v>8.801468397002664e-59</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>0.3</v>
       </c>
       <c r="C38" t="n">
-        <v>9.846520256645838e-49</v>
+        <v>5.318653252209473e-49</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>0.35</v>
       </c>
       <c r="C39" t="n">
-        <v>1.228350897002504e-41</v>
+        <v>6.634539932282144e-42</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>0.4</v>
       </c>
       <c r="C40" t="n">
-        <v>3.406419245736028e-36</v>
+        <v>1.839717041377047e-36</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>0.45</v>
       </c>
       <c r="C41" t="n">
-        <v>7.968154700157861e-32</v>
+        <v>4.303008943067832e-32</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>0.5</v>
       </c>
       <c r="C42" t="n">
-        <v>3.197694497404639e-28</v>
+        <v>1.726718737528276e-28</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>0.6</v>
       </c>
       <c r="C43" t="n">
-        <v>1.133350484785864e-22</v>
+        <v>6.119578015645701e-23</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>0.7</v>
       </c>
       <c r="C44" t="n">
-        <v>1.213105954068963e-18</v>
+        <v>6.550101718947557e-19</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>0.8</v>
       </c>
       <c r="C45" t="n">
-        <v>1.358694431156312e-15</v>
+        <v>7.336158574362878e-16</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>0.9</v>
       </c>
       <c r="C46" t="n">
-        <v>3.341852190061542e-13</v>
+        <v>1.804403142916507e-13</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>2.834345050651381e-11</v>
+        <v>1.530379876013285e-11</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>1.25</v>
       </c>
       <c r="C48" t="n">
-        <v>9.269460018592637e-08</v>
+        <v>5.004985242095217e-08</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>1.5</v>
       </c>
       <c r="C49" t="n">
-        <v>2.192607545906539e-05</v>
+        <v>1.183890786452967e-05</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>1.75</v>
       </c>
       <c r="C50" t="n">
-        <v>0.001114879215692048</v>
+        <v>0.0006019780874969857</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>0.02133859114739302</v>
+        <v>0.01152179769393968</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>2.5</v>
       </c>
       <c r="C52" t="n">
-        <v>1.318873727418</v>
+        <v>0.7121304377251496</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3</v>
       </c>
       <c r="C53" t="n">
-        <v>20.22608039176941</v>
+        <v>10.92115242256195</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.5</v>
       </c>
       <c r="C54" t="n">
-        <v>139.5141164854345</v>
+        <v>75.33112781639041</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>584.0647975305335</v>
+        <v>315.3671769034067</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>4175.691493074621</v>
+        <v>2254.663230382765</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>6</v>
       </c>
       <c r="C57" t="n">
-        <v>14916.28152187045</v>
+        <v>8054.000456659141</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>7</v>
       </c>
       <c r="C58" t="n">
-        <v>35966.80585916865</v>
+        <v>19420.0782703348</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>8</v>
       </c>
       <c r="C59" t="n">
-        <v>68014.15486126658</v>
+        <v>36723.722966535</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>9</v>
       </c>
       <c r="C60" t="n">
-        <v>109595.2070463171</v>
+        <v>59174.89451091763</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>10</v>
       </c>
       <c r="C61" t="n">
-        <v>158118.6008602326</v>
+        <v>85374.39430066453</v>
       </c>
     </row>
   </sheetData>

--- a/TESTING/legendre_out/DATA/p2/a0/p2_rates.xlsx
+++ b/TESTING/legendre_out/DATA/p2/a0/p2_rates.xlsx
@@ -617,7 +617,7 @@
         <v>0.05</v>
       </c>
       <c r="C23" t="n">
-        <v>1.910044682548787e-282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>0.06</v>
       </c>
       <c r="C24" t="n">
-        <v>2.579144995786488e-236</v>
+        <v>1.478386815654132e-281</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>2.490596052932349e-203</v>
+        <v>1.765889206618274e-240</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>0.08</v>
       </c>
       <c r="C26" t="n">
-        <v>1.478079197623186e-178</v>
+        <v>1.126734626601297e-209</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>0.09</v>
       </c>
       <c r="C27" t="n">
-        <v>2.966295466886597e-159</v>
+        <v>1.018371139854973e-185</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" t="n">
-        <v>8.861400161105788e-144</v>
+        <v>1.477601700604155e-166</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>0.11</v>
       </c>
       <c r="C29" t="n">
-        <v>4.372921143488862e-131</v>
+        <v>6.98573549705863e-151</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>0.12</v>
       </c>
       <c r="C30" t="n">
-        <v>1.770189961932425e-120</v>
+        <v>8.008897305200727e-138</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>0.13</v>
       </c>
       <c r="C31" t="n">
-        <v>1.779584499825226e-111</v>
+        <v>8.936601988473637e-127</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>0.14</v>
       </c>
       <c r="C32" t="n">
-        <v>9.787707032228842e-104</v>
+        <v>2.618993670558739e-117</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>0.15</v>
       </c>
       <c r="C33" t="n">
-        <v>5.251359530553954e-97</v>
+        <v>4.174766992725316e-109</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>0.16</v>
       </c>
       <c r="C34" t="n">
-        <v>4.239381583284432e-91</v>
+        <v>6.24892127201345e-102</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>0.18</v>
       </c>
       <c r="C35" t="n">
-        <v>3.291821495500461e-81</v>
+        <v>5.613903226062694e-90</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>0.2</v>
       </c>
       <c r="C36" t="n">
-        <v>3.002684247432046e-73</v>
+        <v>2.023759605030736e-80</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>0.25</v>
       </c>
       <c r="C37" t="n">
-        <v>8.801468397002664e-59</v>
+        <v>3.090024744024862e-63</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>0.3</v>
       </c>
       <c r="C38" t="n">
-        <v>5.318653252209473e-49</v>
+        <v>8.443836539544946e-52</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>0.35</v>
       </c>
       <c r="C39" t="n">
-        <v>6.634539932282144e-42</v>
+        <v>1.207594601140333e-43</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>0.4</v>
       </c>
       <c r="C40" t="n">
-        <v>1.839717041377047e-36</v>
+        <v>1.546349705796602e-37</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>0.45</v>
       </c>
       <c r="C41" t="n">
-        <v>4.303008943067832e-32</v>
+        <v>8.595097066357865e-33</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>0.5</v>
       </c>
       <c r="C42" t="n">
-        <v>1.726718737528276e-28</v>
+        <v>5.353136008048557e-29</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>0.6</v>
       </c>
       <c r="C43" t="n">
-        <v>6.119578015645701e-23</v>
+        <v>2.68183211143958e-23</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>0.7</v>
       </c>
       <c r="C44" t="n">
-        <v>6.550101718947557e-19</v>
+        <v>3.362161757420833e-19</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>0.8</v>
       </c>
       <c r="C45" t="n">
-        <v>7.336158574362878e-16</v>
+        <v>4.321182109007818e-16</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>0.9</v>
       </c>
       <c r="C46" t="n">
-        <v>1.804403142916507e-13</v>
+        <v>1.218135078732173e-13</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>1.530379876013285e-11</v>
+        <v>1.171974677206788e-11</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>1.25</v>
       </c>
       <c r="C48" t="n">
-        <v>5.004985242095217e-08</v>
+        <v>4.842144482434636e-08</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>1.5</v>
       </c>
       <c r="C49" t="n">
-        <v>1.183890786452967e-05</v>
+        <v>1.307975513470761e-05</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>1.75</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0006019780874969857</v>
+        <v>0.0007166043953645496</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>0.01152179769393968</v>
+        <v>0.01433331065522123</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>2.5</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7121304377251496</v>
+        <v>0.9269414742573435</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3</v>
       </c>
       <c r="C53" t="n">
-        <v>10.92115242256195</v>
+        <v>14.50898618176926</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.5</v>
       </c>
       <c r="C54" t="n">
-        <v>75.33112781639041</v>
+        <v>101.1039491499817</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>315.3671769034067</v>
+        <v>425.5227405452127</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>2254.663230382765</v>
+        <v>3054.861294031562</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>6</v>
       </c>
       <c r="C57" t="n">
-        <v>8054.000456659141</v>
+        <v>10918.86156544986</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>7</v>
       </c>
       <c r="C58" t="n">
-        <v>19420.0782703348</v>
+        <v>26309.72571383536</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>8</v>
       </c>
       <c r="C59" t="n">
-        <v>36723.722966535</v>
+        <v>49694.71637492181</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>9</v>
       </c>
       <c r="C60" t="n">
-        <v>59174.89451091763</v>
+        <v>79972.3142206859</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>10</v>
       </c>
       <c r="C61" t="n">
-        <v>85374.39430066453</v>
+        <v>115230.8657758072</v>
       </c>
     </row>
   </sheetData>

--- a/TESTING/legendre_out/DATA/p2/a0/p2_rates.xlsx
+++ b/TESTING/legendre_out/DATA/p2/a0/p2_rates.xlsx
@@ -628,7 +628,7 @@
         <v>0.06</v>
       </c>
       <c r="C24" t="n">
-        <v>1.478386815654132e-281</v>
+        <v>1.456226266851124e-281</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>1.765889206618274e-240</v>
+        <v>1.743691023603495e-240</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>0.08</v>
       </c>
       <c r="C26" t="n">
-        <v>1.126734626601297e-209</v>
+        <v>1.11387544884965e-209</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>0.09</v>
       </c>
       <c r="C27" t="n">
-        <v>1.018371139854973e-185</v>
+        <v>1.007344872252153e-185</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" t="n">
-        <v>1.477601700604155e-166</v>
+        <v>1.462063612843657e-166</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>0.11</v>
       </c>
       <c r="C29" t="n">
-        <v>6.98573549705863e-151</v>
+        <v>6.913494486559585e-151</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>0.12</v>
       </c>
       <c r="C30" t="n">
-        <v>8.008897305200727e-138</v>
+        <v>7.926901875838474e-138</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>0.13</v>
       </c>
       <c r="C31" t="n">
-        <v>8.936601988473637e-127</v>
+        <v>8.845687143905041e-127</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>0.14</v>
       </c>
       <c r="C32" t="n">
-        <v>2.618993670558739e-117</v>
+        <v>2.592463362729256e-117</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>0.15</v>
       </c>
       <c r="C33" t="n">
-        <v>4.174766992725316e-109</v>
+        <v>4.132606539812099e-109</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>0.16</v>
       </c>
       <c r="C34" t="n">
-        <v>6.24892127201345e-102</v>
+        <v>6.185963037662736e-102</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>0.18</v>
       </c>
       <c r="C35" t="n">
-        <v>5.613903226062694e-90</v>
+        <v>5.557543885223269e-90</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>0.2</v>
       </c>
       <c r="C36" t="n">
-        <v>2.023759605030736e-80</v>
+        <v>2.003498321038065e-80</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>0.25</v>
       </c>
       <c r="C37" t="n">
-        <v>3.090024744024862e-63</v>
+        <v>3.059239170015681e-63</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>0.3</v>
       </c>
       <c r="C38" t="n">
-        <v>8.443836539544946e-52</v>
+        <v>8.359817947664128e-52</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>0.35</v>
       </c>
       <c r="C39" t="n">
-        <v>1.207594601140333e-43</v>
+        <v>1.195507076342361e-43</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>0.4</v>
       </c>
       <c r="C40" t="n">
-        <v>1.546349705796602e-37</v>
+        <v>1.530589976507492e-37</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>0.45</v>
       </c>
       <c r="C41" t="n">
-        <v>8.595097066357865e-33</v>
+        <v>8.504478214087734e-33</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>0.5</v>
       </c>
       <c r="C42" t="n">
-        <v>5.353136008048557e-29</v>
+        <v>5.293783197164682e-29</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>0.6</v>
       </c>
       <c r="C43" t="n">
-        <v>2.68183211143958e-23</v>
+        <v>2.647894816957417e-23</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>0.7</v>
       </c>
       <c r="C44" t="n">
-        <v>3.362161757420833e-19</v>
+        <v>3.313934309330664e-19</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>0.8</v>
       </c>
       <c r="C45" t="n">
-        <v>4.321182109007818e-16</v>
+        <v>4.25430334370782e-16</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>0.9</v>
       </c>
       <c r="C46" t="n">
-        <v>1.218135078732173e-13</v>
+        <v>1.19887782218033e-13</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>1.171974677206788e-11</v>
+        <v>1.153781452778532e-11</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>1.25</v>
       </c>
       <c r="C48" t="n">
-        <v>4.842144482434636e-08</v>
+        <v>4.775285795494118e-08</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>1.5</v>
       </c>
       <c r="C49" t="n">
-        <v>1.307975513470761e-05</v>
+        <v>1.292108021894222e-05</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>1.75</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0007166043953645496</v>
+        <v>0.0007088360358011883</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>0.01433331065522123</v>
+        <v>0.01419206060051115</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>2.5</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9269414742573435</v>
+        <v>0.9191165040414717</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3</v>
       </c>
       <c r="C53" t="n">
-        <v>14.50898618176926</v>
+        <v>14.40093933049566</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.5</v>
       </c>
       <c r="C54" t="n">
-        <v>101.1039491499817</v>
+        <v>100.4279844566379</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>425.5227405452127</v>
+        <v>422.9377362546566</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>3054.861294031562</v>
+        <v>3039.147384559843</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>6</v>
       </c>
       <c r="C57" t="n">
-        <v>10918.86156544986</v>
+        <v>10870.11789517511</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>7</v>
       </c>
       <c r="C58" t="n">
-        <v>26309.72571383536</v>
+        <v>26205.90948695407</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>8</v>
       </c>
       <c r="C59" t="n">
-        <v>49694.71637492181</v>
+        <v>49518.88204834254</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>9</v>
       </c>
       <c r="C60" t="n">
-        <v>79972.3142206859</v>
+        <v>79715.6252319559</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>10</v>
       </c>
       <c r="C61" t="n">
-        <v>115230.8657758072</v>
+        <v>114892.1385441911</v>
       </c>
     </row>
   </sheetData>

--- a/TESTING/legendre_out/DATA/p2/a0/p2_rates.xlsx
+++ b/TESTING/legendre_out/DATA/p2/a0/p2_rates.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -380,662 +380,266 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.478511498307721e-166</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0.002</v>
+        <v>0.15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.002</v>
+        <v>0.15</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.184193119927934e-109</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>0.003</v>
+        <v>0.2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.003</v>
+        <v>0.2</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2.029401002533733e-80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0.004</v>
+        <v>0.3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.004</v>
+        <v>0.3</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8.470577402589686e-52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>0.005</v>
+        <v>0.4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.005</v>
+        <v>0.4</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1.550833111039491e-37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>0.006</v>
+        <v>0.5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.006</v>
+        <v>0.5</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5.360352906409879e-29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>0.007</v>
+        <v>0.6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.007</v>
+        <v>0.6</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2.675948774930079e-23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0.008</v>
+        <v>0.7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.008</v>
+        <v>0.7</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3.336965537955242e-19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>4.264048178708379e-16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>0.01</v>
+        <v>0.9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01</v>
+        <v>0.9</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.196139662335656e-13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>0.011</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>0.011</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1.146763401986141e-11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>0.012</v>
+        <v>1.5</v>
       </c>
       <c r="B13" t="n">
-        <v>0.012</v>
+        <v>1.5</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.273309460381189e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>0.013</v>
+        <v>2</v>
       </c>
       <c r="B14" t="n">
-        <v>0.013</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.01395710139808612</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>0.014</v>
+        <v>2.5</v>
       </c>
       <c r="B15" t="n">
-        <v>0.014</v>
+        <v>2.5</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.9032831004643281</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>0.015</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>0.015</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>14.14894769505754</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>0.016</v>
+        <v>3.5</v>
       </c>
       <c r="B17" t="n">
-        <v>0.016</v>
+        <v>3.5</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>98.65905006348392</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>0.018</v>
+        <v>4</v>
       </c>
       <c r="B18" t="n">
-        <v>0.018</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>415.4688569391841</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>0.02</v>
+        <v>4.5</v>
       </c>
       <c r="B19" t="n">
-        <v>0.02</v>
+        <v>4.5</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1251.624446131606</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>0.025</v>
+        <v>5</v>
       </c>
       <c r="B20" t="n">
-        <v>0.025</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2985.458774213059</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>0.03</v>
+        <v>6</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>10678.43511280674</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>0.04</v>
+        <v>7</v>
       </c>
       <c r="B22" t="n">
-        <v>0.04</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>25744.82232495171</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>0.05</v>
+        <v>8</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>48649.4750288717</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>0.06</v>
+        <v>9</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06</v>
+        <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>1.456226266851124e-281</v>
+        <v>78318.75262378508</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>0.07000000000000001</v>
+        <v>10</v>
       </c>
       <c r="B25" t="n">
-        <v>0.07000000000000001</v>
+        <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>1.743691023603495e-240</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1.11387544884965e-209</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1.007344872252153e-185</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1.462063612843657e-166</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="C29" t="n">
-        <v>6.913494486559585e-151</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="C30" t="n">
-        <v>7.926901875838474e-138</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="C31" t="n">
-        <v>8.845687143905041e-127</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="C32" t="n">
-        <v>2.592463362729256e-117</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="C33" t="n">
-        <v>4.132606539812099e-109</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="C34" t="n">
-        <v>6.185963037662736e-102</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="C35" t="n">
-        <v>5.557543885223269e-90</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C36" t="n">
-        <v>2.003498321038065e-80</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C37" t="n">
-        <v>3.059239170015681e-63</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C38" t="n">
-        <v>8.359817947664128e-52</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1.195507076342361e-43</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1.530589976507492e-37</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="C41" t="n">
-        <v>8.504478214087734e-33</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C42" t="n">
-        <v>5.293783197164682e-29</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C43" t="n">
-        <v>2.647894816957417e-23</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C44" t="n">
-        <v>3.313934309330664e-19</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C45" t="n">
-        <v>4.25430334370782e-16</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1.19887782218033e-13</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1.153781452778532e-11</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="C48" t="n">
-        <v>4.775285795494118e-08</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="B49" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1.292108021894222e-05</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="B50" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.0007088360358011883</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B51" t="n">
-        <v>2</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.01419206060051115</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="B52" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.9191165040414717</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B53" t="n">
-        <v>3</v>
-      </c>
-      <c r="C53" t="n">
-        <v>14.40093933049566</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="B54" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="C54" t="n">
-        <v>100.4279844566379</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B55" t="n">
-        <v>4</v>
-      </c>
-      <c r="C55" t="n">
-        <v>422.9377362546566</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B56" t="n">
-        <v>5</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3039.147384559843</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B57" t="n">
-        <v>6</v>
-      </c>
-      <c r="C57" t="n">
-        <v>10870.11789517511</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B58" t="n">
-        <v>7</v>
-      </c>
-      <c r="C58" t="n">
-        <v>26205.90948695407</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B59" t="n">
-        <v>8</v>
-      </c>
-      <c r="C59" t="n">
-        <v>49518.88204834254</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B60" t="n">
-        <v>9</v>
-      </c>
-      <c r="C60" t="n">
-        <v>79715.6252319559</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B61" t="n">
-        <v>10</v>
-      </c>
-      <c r="C61" t="n">
-        <v>114892.1385441911</v>
+        <v>112882.2803104748</v>
       </c>
     </row>
   </sheetData>

--- a/TESTING/legendre_out/DATA/p2/a0/p2_rates.xlsx
+++ b/TESTING/legendre_out/DATA/p2/a0/p2_rates.xlsx
@@ -386,7 +386,7 @@
         <v>0.1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.478511498307721e-166</v>
+        <v>9.752381164061416e-167</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>0.15</v>
       </c>
       <c r="C3" t="n">
-        <v>4.184193119927934e-109</v>
+        <v>2.770887108826179e-109</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>0.2</v>
       </c>
       <c r="C4" t="n">
-        <v>2.029401002533733e-80</v>
+        <v>1.346392109948661e-80</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>0.3</v>
       </c>
       <c r="C5" t="n">
-        <v>8.470577402589686e-52</v>
+        <v>5.628738931700521e-52</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>0.4</v>
       </c>
       <c r="C6" t="n">
-        <v>1.550833111039491e-37</v>
+        <v>1.031314642680894e-37</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>0.5</v>
       </c>
       <c r="C7" t="n">
-        <v>5.360352906409879e-29</v>
+        <v>3.567694350869352e-29</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>0.6</v>
       </c>
       <c r="C8" t="n">
-        <v>2.675948774930079e-23</v>
+        <v>1.78418817859424e-23</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>0.7</v>
       </c>
       <c r="C9" t="n">
-        <v>3.336965537955242e-19</v>
+        <v>2.231786737560573e-19</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>0.8</v>
       </c>
       <c r="C10" t="n">
-        <v>4.264048178708379e-16</v>
+        <v>2.862831415839441e-16</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>0.9</v>
       </c>
       <c r="C11" t="n">
-        <v>1.196139662335656e-13</v>
+        <v>8.060266005434188e-14</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1.146763401986141e-11</v>
+        <v>7.75003910966522e-12</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>1.5</v>
       </c>
       <c r="C13" t="n">
-        <v>1.273309460381189e-05</v>
+        <v>8.649071599281279e-06</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01395710139808612</v>
+        <v>0.009480027440520244</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>2.5</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9032831004643281</v>
+        <v>0.6131053387872389</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>14.14894769505754</v>
+        <v>9.596836498523867</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.5</v>
       </c>
       <c r="C17" t="n">
-        <v>98.65905006348392</v>
+        <v>66.87627009021833</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>415.4688569391841</v>
+        <v>281.4785845770608</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>4.5</v>
       </c>
       <c r="C19" t="n">
-        <v>1251.624446131606</v>
+        <v>847.5940342693552</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>2985.458774213059</v>
+        <v>2020.97508774287</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>10678.43511280674</v>
+        <v>7224.308108617844</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>25744.82232495171</v>
+        <v>17409.30421840865</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>48649.4750288717</v>
+        <v>32886.41687180898</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>78318.75262378508</v>
+        <v>52927.60342131788</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>112882.2803104748</v>
+        <v>76268.12442427165</v>
       </c>
     </row>
   </sheetData>
